--- a/doc/测试用例/学生模块测试用例.xlsx
+++ b/doc/测试用例/学生模块测试用例.xlsx
@@ -741,7 +741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,7 +776,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,7 +988,7 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/测试用例/学生模块测试用例.xlsx
+++ b/doc/测试用例/学生模块测试用例.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\课程设计\homework_system\doc\测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\homework_system\doc\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99850C3-4526-4A94-B026-F272A789CAE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +55,6 @@
   </si>
   <si>
     <t>正例1</t>
-  </si>
-  <si>
-    <t>封杰</t>
   </si>
   <si>
     <t>学生首页</t>
@@ -601,11 +599,14 @@
     <t>HomeWorkSystem_TC_029</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>许常玉</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,6 +775,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -809,6 +827,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,11 +1019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1035,7 +1070,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -1044,16 +1079,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1061,33 +1096,33 @@
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1095,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1103,33 +1138,33 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1137,67 +1172,68 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1205,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1213,33 +1249,33 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1247,36 +1283,36 @@
         <v>2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1284,10 +1320,10 @@
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1295,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1303,36 +1339,36 @@
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1340,10 +1376,10 @@
         <v>2</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1351,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1359,10 +1395,10 @@
         <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1370,36 +1406,36 @@
         <v>5</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -1407,10 +1443,10 @@
         <v>2</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1418,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1426,36 +1462,36 @@
         <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1463,10 +1499,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -1474,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1482,10 +1518,10 @@
         <v>4</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -1493,33 +1529,33 @@
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -1527,36 +1563,36 @@
         <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -1564,10 +1600,10 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -1575,36 +1611,36 @@
         <v>3</v>
       </c>
       <c r="H49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -1612,10 +1648,10 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -1623,33 +1659,33 @@
         <v>3</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -1658,36 +1694,36 @@
         <v>2</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -1696,10 +1732,10 @@
         <v>2</v>
       </c>
       <c r="H59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -1707,36 +1743,36 @@
         <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -1744,10 +1780,10 @@
         <v>2</v>
       </c>
       <c r="H63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -1755,33 +1791,33 @@
         <v>3</v>
       </c>
       <c r="H64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -1789,39 +1825,39 @@
         <v>2</v>
       </c>
       <c r="H67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3" t="s">
+      <c r="I69" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -1829,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -1837,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -1845,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -1853,39 +1889,39 @@
         <v>5</v>
       </c>
       <c r="H73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
@@ -1893,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
@@ -1901,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
@@ -1909,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
@@ -1917,39 +1953,39 @@
         <v>5</v>
       </c>
       <c r="H79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
@@ -1957,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
@@ -1965,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
@@ -1973,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
@@ -1981,39 +2017,39 @@
         <v>5</v>
       </c>
       <c r="H85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
@@ -2021,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -2029,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -2037,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -2045,39 +2081,39 @@
         <v>5</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
@@ -2085,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
@@ -2093,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
@@ -2101,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -2109,39 +2145,39 @@
         <v>5</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
@@ -2149,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
@@ -2157,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
@@ -2165,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
@@ -2173,39 +2209,39 @@
         <v>5</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105" t="s">
         <v>85</v>
       </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F105" t="s">
-        <v>86</v>
-      </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
@@ -2213,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
@@ -2221,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
@@ -2229,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -2237,39 +2273,39 @@
         <v>5</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F111" t="s">
         <v>88</v>
       </c>
-      <c r="D111" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F111" t="s">
-        <v>89</v>
-      </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -2277,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -2285,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -2293,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -2301,36 +2337,36 @@
         <v>5</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" s="3" t="s">
+      <c r="I117" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -2338,36 +2374,36 @@
         <v>2</v>
       </c>
       <c r="H118" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I120" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -2375,36 +2411,36 @@
         <v>2</v>
       </c>
       <c r="H121" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C123" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -2412,36 +2448,36 @@
         <v>2</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I126" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -2449,10 +2485,10 @@
         <v>2</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2476,7 +2512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
